--- a/biology/Zoologie/Cyclopes_didactylus/Cyclopes_didactylus.xlsx
+++ b/biology/Zoologie/Cyclopes_didactylus/Cyclopes_didactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclopes didactylus, couramment appelé Myrmidon, Fourmilier nain, Petit fourmilier ou Lèche-main (en Guyane), est une espèce de la famille des Cyclopedidae.
 Exclusivement arboricole, il a une queue préhensile.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Belize, Bolivie, Brésil, Colombie, Costa Rica, Guatemala, Guyana, Guyane, Honduras, Mexique, Nicaragua, Panama, Pérou, Suriname, Trinité-et-Tobago, Venezuela, Équateur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Belize, Bolivie, Brésil, Colombie, Costa Rica, Guatemala, Guyana, Guyane, Honduras, Mexique, Nicaragua, Panama, Pérou, Suriname, Trinité-et-Tobago, Venezuela, Équateur.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure entre 32 et 52 cm de long, ce qui en fait le plus petit fourmilier. Il est couvert d'une fourrure brun doré. Ses mâchoires sont incurvées de manière à former un tube court, et il se nourrit de termites et d'autres insectes.
 </t>
@@ -574,18 +590,54 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cyclopes didactylus (Linnaeus, 1758)[2]. L'espèce a été initialement classée dans le genre Myrmecophaga sous le protonyme Myrmecophaga didactyla Linnaeus, 1758[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Myrmidon didactyle[2].
-Cyclopes didactylus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cyclopes didactylus (Linnaeus, 1758). L'espèce a été initialement classée dans le genre Myrmecophaga sous le protonyme Myrmecophaga didactyla Linnaeus, 1758.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Myrmidon didactyle.
+Cyclopes didactylus a pour synonymes :
 Cyclopes didactylus subsp. didactylus
 Cyclopes didactylus subsp. melini Lönnberg, 1928
 Myrmecophaga didactyla Linnaeus, 1758
 Myrmecophaga monodactyla Kerr, 1792
-Myrmecophaga unicolor Desmarest, 1822
-Liste des sous-espèces
-Selon Mammal Species of the World (version 3, 2005)  (26 décembre 2023)[3] :
+Myrmecophaga unicolor Desmarest, 1822</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyclopes_didactylus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyclopes_didactylus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (26 décembre 2023) :
 sous-espèce Cyclopes didactylus catellus
 sous-espèce Cyclopes didactylus didactylus
 sous-espèce Cyclopes didactylus dorsalis
